--- a/ch4/fba.xlsx
+++ b/ch4/fba.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\root\dbook\ch3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\root\dbook\ch4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9444" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
     <sheet name="fba" sheetId="1" r:id="rId2"/>
     <sheet name="fba(필터)" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -535,48 +535,48 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -599,9 +599,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -857,6 +857,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D504-4B26-A021-F1F9898B8C71}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1025,6 +1030,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D504-4B26-A021-F1F9898B8C71}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1222,9 +1232,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1477,6 +1487,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FFA-4049-A231-9D75BBB78EEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1619,6 +1634,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2FFA-4049-A231-9D75BBB78EEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2999,7 +3019,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:D41" totalsRowCount="1">
-  <autoFilter ref="A1:D41"/>
+  <autoFilter ref="A1:D40"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Trial"/>
     <tableColumn id="2" name="Air"/>
@@ -3031,7 +3051,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3297,7 +3317,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3307,17 +3327,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3331,7 +3351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3346,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3361,7 +3381,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3376,7 +3396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3391,7 +3411,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3406,7 +3426,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3421,7 +3441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3436,7 +3456,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3451,7 +3471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3466,7 +3486,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3481,7 +3501,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3496,7 +3516,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3511,7 +3531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3526,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3541,7 +3561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3556,7 +3576,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3571,7 +3591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3586,7 +3606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3601,7 +3621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3616,7 +3636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3631,7 +3651,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3646,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3661,7 +3681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3676,7 +3696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3691,7 +3711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3706,7 +3726,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3721,7 +3741,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3736,7 +3756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3751,7 +3771,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3766,7 +3786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3781,7 +3801,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3796,7 +3816,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3811,7 +3831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3826,7 +3846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3841,7 +3861,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3856,7 +3876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3871,7 +3891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3886,7 +3906,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3901,7 +3921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3916,19 +3936,19 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D41">
         <f>SUBTOTAL(101,표1[Difference])</f>
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43">
         <f>_xlfn.CONFIDENCE.T(0.05,STDEV(표1[Air]),39)</f>
         <v>1.5193372692563762</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <f>_xlfn.T.TEST(표1[Air],표1[Helium],2,1)</f>
         <v>0.67702517991474909</v>
@@ -3963,13 +3983,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3983,7 +4003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3998,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4009,11 +4029,11 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <f>C3-B3</f>
+        <f t="shared" ref="D3:D36" si="0">C3-B3</f>
         <v>-7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4024,11 +4044,11 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4039,11 +4059,11 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <f>C5-B5</f>
+        <f t="shared" si="0"/>
         <v>-12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4054,11 +4074,11 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <f>C6-B6</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4069,11 +4089,11 @@
         <v>25</v>
       </c>
       <c r="D7">
-        <f>C7-B7</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4084,11 +4104,11 @@
         <v>26</v>
       </c>
       <c r="D8">
-        <f>C8-B8</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4099,11 +4119,11 @@
         <v>22</v>
       </c>
       <c r="D9">
-        <f>C9-B9</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4114,11 +4134,11 @@
         <v>26</v>
       </c>
       <c r="D10">
-        <f>C10-B10</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -4129,11 +4149,11 @@
         <v>28</v>
       </c>
       <c r="D11">
-        <f>C11-B11</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13</v>
       </c>
@@ -4144,11 +4164,11 @@
         <v>28</v>
       </c>
       <c r="D12">
-        <f>C12-B12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
@@ -4159,11 +4179,11 @@
         <v>31</v>
       </c>
       <c r="D13">
-        <f>C13-B13</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
@@ -4174,11 +4194,11 @@
         <v>22</v>
       </c>
       <c r="D14">
-        <f>C14-B14</f>
+        <f t="shared" si="0"/>
         <v>-12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16</v>
       </c>
@@ -4189,11 +4209,11 @@
         <v>29</v>
       </c>
       <c r="D15">
-        <f>C15-B15</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
@@ -4204,11 +4224,11 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <f>C16-B16</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
@@ -4219,11 +4239,11 @@
         <v>26</v>
       </c>
       <c r="D17">
-        <f>C17-B17</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>19</v>
       </c>
@@ -4234,11 +4254,11 @@
         <v>35</v>
       </c>
       <c r="D18">
-        <f>C18-B18</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
@@ -4249,11 +4269,11 @@
         <v>24</v>
       </c>
       <c r="D19">
-        <f>C19-B19</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -4264,11 +4284,11 @@
         <v>31</v>
       </c>
       <c r="D20">
-        <f>C20-B20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22</v>
       </c>
@@ -4279,11 +4299,11 @@
         <v>34</v>
       </c>
       <c r="D21">
-        <f>C21-B21</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23</v>
       </c>
@@ -4294,11 +4314,11 @@
         <v>39</v>
       </c>
       <c r="D22">
-        <f>C22-B22</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
@@ -4309,11 +4329,11 @@
         <v>32</v>
       </c>
       <c r="D23">
-        <f>C23-B23</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>26</v>
       </c>
@@ -4324,11 +4344,11 @@
         <v>28</v>
       </c>
       <c r="D24">
-        <f>C24-B24</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>27</v>
       </c>
@@ -4339,11 +4359,11 @@
         <v>30</v>
       </c>
       <c r="D25">
-        <f>C25-B25</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>28</v>
       </c>
@@ -4354,11 +4374,11 @@
         <v>27</v>
       </c>
       <c r="D26">
-        <f>C26-B26</f>
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>29</v>
       </c>
@@ -4369,11 +4389,11 @@
         <v>33</v>
       </c>
       <c r="D27">
-        <f>C27-B27</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>31</v>
       </c>
@@ -4384,11 +4404,11 @@
         <v>26</v>
       </c>
       <c r="D28">
-        <f>C28-B28</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32</v>
       </c>
@@ -4399,11 +4419,11 @@
         <v>32</v>
       </c>
       <c r="D29">
-        <f>C29-B29</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>33</v>
       </c>
@@ -4414,11 +4434,11 @@
         <v>30</v>
       </c>
       <c r="D30">
-        <f>C30-B30</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>34</v>
       </c>
@@ -4429,11 +4449,11 @@
         <v>29</v>
       </c>
       <c r="D31">
-        <f>C31-B31</f>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>35</v>
       </c>
@@ -4444,11 +4464,11 @@
         <v>30</v>
       </c>
       <c r="D32">
-        <f>C32-B32</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>36</v>
       </c>
@@ -4459,11 +4479,11 @@
         <v>29</v>
       </c>
       <c r="D33">
-        <f>C33-B33</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>37</v>
       </c>
@@ -4474,11 +4494,11 @@
         <v>29</v>
       </c>
       <c r="D34">
-        <f>C34-B34</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>38</v>
       </c>
@@ -4489,11 +4509,11 @@
         <v>30</v>
       </c>
       <c r="D35">
-        <f>C35-B35</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>39</v>
       </c>
@@ -4504,11 +4524,11 @@
         <v>26</v>
       </c>
       <c r="D36">
-        <f>C36-B36</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -4517,7 +4537,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -4526,7 +4546,7 @@
         <v>2.0914942522616533</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
